--- a/TEMPLATE-TWSD.xlsx
+++ b/TEMPLATE-TWSD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TriangleWaterSupplyDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E12AAB-235A-46B4-BD16-778073170E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B724A-FB85-4350-8D3E-0B10B8814589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="750" windowWidth="24450" windowHeight="13965" tabRatio="999" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="4815" windowWidth="18690" windowHeight="10080" tabRatio="999" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUIDE" sheetId="9" r:id="rId1"/>
@@ -2010,7 +2010,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -6728,15 +6728,15 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
